--- a/src/main/resources/templates/export/export_temp.xlsx
+++ b/src/main/resources/templates/export/export_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="779" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TMP_KHACH_HANG" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,13 @@
     <sheet name="TMP_CONG_TRINH" sheetId="3" r:id="rId3"/>
     <sheet name="TMP_THIET_BI" sheetId="2" r:id="rId4"/>
     <sheet name="TMP_TONG_HOP" sheetId="5" r:id="rId5"/>
+    <sheet name="TMP_CHI_PHI" sheetId="6" r:id="rId6"/>
+    <sheet name="TMP_NHAP_NHIEN_LIEU" sheetId="8" r:id="rId7"/>
+    <sheet name="TMP_CAP_NHIEN_LIEU" sheetId="7" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>Khu phố Phước Tấn, Phường Tân Hòa, Thành phố Phú Mỹ, Tỉnh Bà Rịa- Vũng Tàu</t>
   </si>
@@ -273,21 +279,93 @@
   </si>
   <si>
     <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP CHI PHÍ</t>
+  </si>
+  <si>
+    <t>Mã xe</t>
+  </si>
+  <si>
+    <t>mã hàng</t>
+  </si>
+  <si>
+    <t>Tên hàng</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Mã NCC</t>
+  </si>
+  <si>
+    <t>Tên NCC</t>
+  </si>
+  <si>
+    <t>Người lái máy</t>
+  </si>
+  <si>
+    <t>Mã Công trình</t>
+  </si>
+  <si>
+    <t>BẢNG CẤP NHIÊN LIỆU DẦU</t>
+  </si>
+  <si>
+    <t>Ngày cấp</t>
+  </si>
+  <si>
+    <t>Đồng hồ
+ trước cấp</t>
+  </si>
+  <si>
+    <t>Đồng hồ
+ sau cấp</t>
+  </si>
+  <si>
+    <t>Số lượng cấp</t>
+  </si>
+  <si>
+    <t>Nhân viên cấp</t>
+  </si>
+  <si>
+    <t>Nhiên Liệu</t>
+  </si>
+  <si>
+    <t>Ngày Nhập</t>
+  </si>
+  <si>
+    <t>Tên Nhiên Liệu</t>
+  </si>
+  <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Nhân Viên Nhập</t>
+  </si>
+  <si>
+    <t>Mã NL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0;\-#,##0;"/>
     <numFmt numFmtId="167" formatCode="_ * #,###.#_ ;_ * \-#,###.#_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_ * #,###_ ;_ * \-#,###_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +496,71 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="10">
@@ -693,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -992,14 +1135,172 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="8" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,6 +1354,370 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMKH"/>
+      <sheetName val="DM Công trình"/>
+      <sheetName val="DM Máy móc, thiết bị"/>
+      <sheetName val="Dầu"/>
+      <sheetName val="Chi phí"/>
+      <sheetName val="Nhật ký xe"/>
+      <sheetName val="Bảng chi tiết theo xe"/>
+      <sheetName val="Bảng KL theo KH"/>
+      <sheetName val="Bảng KL công trình"/>
+      <sheetName val="TH ca máy"/>
+      <sheetName val="TH DT_CP"/>
+      <sheetName val="BÁO CÁO "/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CÔNG TY TNHH XD TM DV TÍN PHÁT LỘC</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Khu phố Phước Tấn, Phường Tân Hòa, Thành phố Phú Mỹ, Tỉnh Bà Rịa- Vũng Tàu</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>STT</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>MÃ MÁY</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>MR-101</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>MR-102</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>LU-D-201</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>LU-D-202</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>LU-D-203</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>LU-L-301</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>LU-L-302</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>LU-L-303</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>LU-L-304</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>LU-T-401</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>LU-T-402</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>LU-R-501</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>LU-R-502</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>LU-R-503</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>CU-601</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>CU-602</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>CU-603</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>CU-604</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>UI-701</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>UI-702</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>XT-801</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>XT-802</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>XB-803</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>XB-804</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>XF-805</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>CB-901</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>XQ-1001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>SD-1002</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>NK-1003</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>NK-1004</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>M-PHATD</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>M-CATSAT</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>CAT-BT</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>DUC-BT</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>DAM-B</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>DAM-C</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>DAM-R</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>M-MAICN</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>LUTAY</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>M-NO</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>M-TUOINHU</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>BAGAC</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>M-BOM</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>M-THOI</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>M-QUETVS</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>M-KHOAN</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>M-HAN</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>VC-VT</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>LU3AT</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>TH-CU-N</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>daoanhtuy</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>THUE09669</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>ThueXBen</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>TH-CU05</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>TH-SAN</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>TH-XB-SG</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>TH-DAO-07</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>TH-XB-DT</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>TH-72C06583</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>XE-TH28498</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>XE-TH02599</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,7 +1986,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +2531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2007,7 +2674,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="77"/>
-      <c r="D6" s="104"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
       <c r="G6" s="56"/>
@@ -2028,7 +2695,7 @@
       <c r="A7" s="54"/>
       <c r="B7" s="55"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="104"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
@@ -2091,18 +2758,18 @@
       <c r="H9" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="102" t="s">
+      <c r="J9" s="104"/>
+      <c r="K9" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="102" t="s">
+      <c r="L9" s="104"/>
+      <c r="M9" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="103"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="98" t="s">
         <v>61</v>
       </c>
@@ -2206,4 +2873,463 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="110"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="110"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="118"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="115"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="122"/>
+    </row>
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="131" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="134"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="134"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="110"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="110"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="117"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="147"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="122"/>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="150" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="152"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154" t="str">
+        <f>+IFERROR(VLOOKUP(B6,'[1]DM Máy móc, thiết bị'!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="117"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="118"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="147"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="149" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="151" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="152"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154" t="str">
+        <f>+IFERROR(VLOOKUP(B6,'[1]DM Máy móc, thiết bị'!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>